--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -580,7 +580,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +677,9 @@
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -704,6 +707,9 @@
       <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="G6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -717,6 +723,9 @@
         <v>8</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -580,15 +580,15 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,7 +613,9 @@
       <c r="G1" s="3">
         <v>40991</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3">
+        <v>40992</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -648,6 +650,9 @@
       <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -668,6 +673,9 @@
       <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -680,6 +688,9 @@
       <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -692,6 +703,9 @@
       <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="H5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -710,6 +724,9 @@
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="H6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -726,6 +743,9 @@
         <v>8</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -580,15 +580,15 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,7 +616,9 @@
       <c r="H1" s="3">
         <v>40992</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3">
+        <v>40966</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -653,6 +655,9 @@
       <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -691,6 +696,9 @@
       <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -704,6 +712,9 @@
         <v>8</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -580,15 +580,15 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +619,9 @@
       <c r="I1" s="3">
         <v>40966</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3">
+        <v>40967</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -658,6 +660,9 @@
       <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -681,6 +686,9 @@
       <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -697,6 +705,9 @@
         <v>8</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -717,6 +728,9 @@
       <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -738,6 +752,9 @@
       <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="J6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -757,6 +774,9 @@
         <v>8</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -580,15 +580,15 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,8 +622,12 @@
       <c r="J1" s="3">
         <v>40967</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="3">
+        <v>40968</v>
+      </c>
+      <c r="L1" s="3">
+        <v>40969</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -663,6 +667,12 @@
       <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -689,6 +699,12 @@
       <c r="J3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -708,6 +724,12 @@
         <v>7</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -731,6 +753,12 @@
       <c r="J5" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="K5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -755,6 +783,12 @@
       <c r="J6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="K6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -777,6 +811,12 @@
         <v>8</v>
       </c>
       <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -252,11 +252,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -276,6 +289,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +602,12 @@
     <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -628,15 +644,27 @@
       <c r="L1" s="3">
         <v>40969</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="M1" s="3">
+        <v>40970</v>
+      </c>
+      <c r="N1" s="3">
+        <v>40973</v>
+      </c>
+      <c r="O1" s="3">
+        <v>40974</v>
+      </c>
+      <c r="P1" s="3">
+        <v>40975</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>40976</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -673,8 +701,23 @@
       <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -705,8 +748,17 @@
       <c r="L3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -732,8 +784,20 @@
       <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -759,8 +823,20 @@
       <c r="L5" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -789,8 +865,20 @@
       <c r="L6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -819,19 +907,32 @@
       <c r="L7" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="M7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,8 +603,8 @@
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>40984</v>
+        <v>40955</v>
       </c>
       <c r="C1" s="3">
-        <v>40985</v>
+        <v>40956</v>
       </c>
       <c r="D1" s="3">
-        <v>40988</v>
+        <v>40959</v>
       </c>
       <c r="E1" s="3">
-        <v>40989</v>
+        <v>40960</v>
       </c>
       <c r="F1" s="3">
-        <v>40990</v>
+        <v>40961</v>
       </c>
       <c r="G1" s="3">
-        <v>40991</v>
+        <v>40962</v>
       </c>
       <c r="H1" s="3">
-        <v>40992</v>
+        <v>40963</v>
       </c>
       <c r="I1" s="3">
         <v>40966</v>
@@ -659,8 +659,12 @@
       <c r="Q1" s="3">
         <v>40976</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="3">
+        <v>40977</v>
+      </c>
+      <c r="S1" s="3">
+        <v>40980</v>
+      </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
@@ -716,6 +720,9 @@
       <c r="Q2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="S2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -757,6 +764,9 @@
       <c r="P3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="R3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -833,6 +843,12 @@
         <v>8</v>
       </c>
       <c r="Q5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -594,7 +594,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,8 +603,8 @@
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +665,9 @@
       <c r="S1" s="3">
         <v>40980</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="3">
+        <v>40981</v>
+      </c>
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,6 +725,9 @@
       <c r="S2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="T2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -767,6 +772,9 @@
       <c r="R3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="T3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -893,6 +901,9 @@
       <c r="Q6" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="T6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:21" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -935,6 +946,9 @@
       </c>
       <c r="Q7" s="16" t="s">
         <v>7</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +603,11 @@
     <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -668,9 +668,14 @@
       <c r="T1" s="3">
         <v>40981</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="3">
+        <v>40982</v>
+      </c>
+      <c r="V1" s="3">
+        <v>40984</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -728,8 +733,14 @@
       <c r="T2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="U2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -775,8 +786,14 @@
       <c r="T3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="U3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -814,8 +831,14 @@
       <c r="Q4" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="U4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -859,8 +882,14 @@
       <c r="S5" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="U5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -904,8 +933,11 @@
       <c r="T6" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="U6" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -950,19 +982,25 @@
       <c r="T7" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="U7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -68,13 +68,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -269,18 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -290,6 +290,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,416 +604,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:53" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="16">
         <v>40955</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="17">
         <v>40956</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="17">
         <v>40959</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="17">
         <v>40960</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="17">
         <v>40961</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="17">
         <v>40962</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="17">
         <v>40963</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="17">
         <v>40966</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="17">
         <v>40967</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="17">
         <v>40968</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="17">
         <v>40969</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="17">
         <v>40970</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="17">
         <v>40973</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="17">
         <v>40974</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="17">
         <v>40975</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="17">
         <v>40976</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="17">
         <v>40977</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="17">
         <v>40980</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="17">
         <v>40981</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="17">
         <v>40982</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="17">
         <v>40984</v>
       </c>
+      <c r="W1" s="17">
+        <v>40987</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="13" t="s">
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="B4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="K4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="P4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>8</v>
+      <c r="U4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="13" t="s">
+      <c r="B5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="13" t="s">
+      <c r="T6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:53" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="16" t="s">
+      <c r="T7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:53" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,8 @@
     <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +690,9 @@
       <c r="W1" s="17">
         <v>40987</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="17">
+        <v>40988</v>
+      </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
@@ -788,6 +790,9 @@
       <c r="W2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="X2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -844,6 +849,9 @@
       <c r="W3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="X3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -892,6 +900,9 @@
       <c r="W4" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="X4" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -994,6 +1005,9 @@
       <c r="U6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="X6" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:53" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1044,6 +1058,9 @@
         <v>8</v>
       </c>
       <c r="V7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="12" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,8 @@
     <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,9 +693,15 @@
       <c r="X1" s="17">
         <v>40988</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
+      <c r="Y1" s="17">
+        <v>40989</v>
+      </c>
+      <c r="Z1" s="17">
+        <v>40990</v>
+      </c>
+      <c r="AA1" s="17">
+        <v>40991</v>
+      </c>
       <c r="AB1" s="18"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
@@ -793,6 +799,15 @@
       <c r="X2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="Y2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -852,6 +867,9 @@
       <c r="X3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="Y3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -903,6 +921,12 @@
       <c r="X4" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="Y4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -957,6 +981,15 @@
       <c r="W5" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="Y5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1008,6 +1041,12 @@
       <c r="X6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="Y6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:53" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1061,6 +1100,12 @@
         <v>8</v>
       </c>
       <c r="X7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="12" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,8 @@
     <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,8 +702,12 @@
       <c r="AA1" s="17">
         <v>40991</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
+      <c r="AB1" s="17">
+        <v>40994</v>
+      </c>
+      <c r="AC1" s="17">
+        <v>40995</v>
+      </c>
       <c r="AD1" s="18"/>
       <c r="AE1" s="18"/>
       <c r="AF1" s="18"/>
@@ -808,6 +812,9 @@
       <c r="AA2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AC2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -870,6 +877,12 @@
       <c r="Y3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AB3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -927,6 +940,9 @@
       <c r="Z4" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="AC4" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -990,6 +1006,9 @@
       <c r="AA5" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AB5" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1045,6 +1064,9 @@
         <v>8</v>
       </c>
       <c r="AA6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="9">
   <si>
     <t xml:space="preserve">                  Ngày
 Tên</t>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,8 @@
     <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="31" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,8 +708,12 @@
       <c r="AC1" s="17">
         <v>40995</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
+      <c r="AD1" s="17">
+        <v>40996</v>
+      </c>
+      <c r="AE1" s="17">
+        <v>40997</v>
+      </c>
       <c r="AF1" s="18"/>
       <c r="AG1" s="18"/>
       <c r="AH1" s="18"/>
@@ -815,6 +819,12 @@
       <c r="AC2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AD2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -883,6 +893,9 @@
       <c r="AC3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AD3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1009,6 +1022,12 @@
       <c r="AB5" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="AD5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:53" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1069,6 +1088,9 @@
       <c r="AC6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AE6" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:53" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1128,6 +1150,9 @@
         <v>8</v>
       </c>
       <c r="AA7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
